--- a/lecture_06/datasets/data.xlsx
+++ b/lecture_06/datasets/data.xlsx
@@ -459,190 +459,190 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>qoWrBKqXGz</t>
+          <t>nrZPpINQXJ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>idyFEyGdmO</t>
+          <t>BEiNtzwjoD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>QAWIsFCBhO</t>
+          <t>yfngnLTfvR</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sCTlcsPawB</t>
+          <t>EgnsJLCmQN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>XewMfZdjfH</t>
+          <t>MMIgJuCINT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JuSOBobLiW</t>
+          <t>dRdlNSgAWb</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AUEshYZkxs</t>
+          <t>eoRsvLsDEq</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>74</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>yzUUTnrQCV</t>
+          <t>TKltPZZCtb</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UUgFrWqtdo</t>
+          <t>LuSpsbJage</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>iXttJNobll</t>
+          <t>wqdXafViCy</t>
         </is>
       </c>
       <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
         <v>6</v>
       </c>
-      <c r="C11" t="n">
-        <v>3</v>
-      </c>
       <c r="D11" t="n">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HMFqvmgFnq</t>
+          <t>KKwBwxvEdx</t>
         </is>
       </c>
       <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
         <v>2</v>
       </c>
-      <c r="C12" t="n">
-        <v>7</v>
-      </c>
       <c r="D12" t="n">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NoBnltGLgf</t>
+          <t>RPqZfFHSue</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>73</v>
@@ -651,199 +651,199 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LGfUJorzBz</t>
+          <t>iqKxLbtFuC</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>sMeHFNPcey</t>
+          <t>nVjhrCwwNT</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MfvhTERHyl</t>
+          <t>FnHNSpzOlZ</t>
         </is>
       </c>
       <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
         <v>7</v>
       </c>
-      <c r="C16" t="n">
-        <v>2</v>
-      </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>iiAPfihnSc</t>
+          <t>lXDRkYKNAW</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>hXvfvwhnYi</t>
+          <t>EQcZtGJYZm</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>adgviFhWNB</t>
+          <t>UszUfJSmXH</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" t="n">
-        <v>4</v>
-      </c>
       <c r="D19" t="n">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>jzzIMAEBNM</t>
+          <t>VvcmJKkuwz</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OnyfaGKnDW</t>
+          <t>vMwSGqFLXJ</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>kCTqCLYNMn</t>
+          <t>blwnKVGnXB</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>91</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aiyvniojhs</t>
+          <t>FSbtliRwji</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>11</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>sOpTapPrwc</t>
+          <t>LjcLdNBmZq</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ZVoWYchllB</t>
+          <t>cEMkhwFZPO</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>vSuHRLcXMu</t>
+          <t>yRVIeTphpP</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -853,100 +853,100 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ldrjNufVDU</t>
+          <t>LtECxresfu</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C27" t="n">
         <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>JHbHQTllwt</t>
+          <t>kGzViziFdF</t>
         </is>
       </c>
       <c r="B28" t="n">
+        <v>5</v>
+      </c>
+      <c r="C28" t="n">
         <v>2</v>
       </c>
-      <c r="C28" t="n">
-        <v>5</v>
-      </c>
       <c r="D28" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SLtMPIKVSP</t>
+          <t>uJfSdcOvHI</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>qKfffQuVbF</t>
+          <t>WSMhHCUvzR</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ZhCgtpOsVN</t>
+          <t>RFnBVecnNj</t>
         </is>
       </c>
       <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
         <v>2</v>
       </c>
-      <c r="C31" t="n">
-        <v>5</v>
-      </c>
       <c r="D31" t="n">
-        <v>59</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>wjBywvqsuv</t>
+          <t>CCAIqfvdrb</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>51</v>
@@ -955,158 +955,158 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>xQvzDIITMF</t>
+          <t>COtOnSFgFy</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>6</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>scDJwJdYTF</t>
+          <t>YmaSTgoDYw</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>10</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>yujZpgkfov</t>
+          <t>zcXHOODTJK</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>QRZlDtBOFl</t>
+          <t>QlPigGOfuN</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D36" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TnWWdVwRtL</t>
+          <t>rNhqUKTqiJ</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>AUWsFaLLrC</t>
+          <t>qkQGFvszSX</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
         <v>7</v>
-      </c>
-      <c r="D38" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ykvUnFGpHi</t>
+          <t>aEMMmdLhyZ</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>pvAcmFpVFS</t>
+          <t>XxMlDFzbFS</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>DfKVNnFSJS</t>
+          <t>JqwXHmugWz</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>86</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>muOcEPfVHc</t>
+          <t>xbtLnZzjeS</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
         <v>83</v>
@@ -1115,382 +1115,382 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>xtXSQpoMcm</t>
+          <t>nfFNxfpWot</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RhnWXFWJtc</t>
+          <t>ezReTELNkF</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>rcPUwXHEfU</t>
+          <t>XHORxpNeUX</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DnLcNOIDBx</t>
+          <t>mpflUyIiEJ</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>UvPlQApdaC</t>
+          <t>WHQMnWwDXQ</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>UChuxjbVeX</t>
+          <t>KymnSqXWGo</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>VCdcrwCnEQ</t>
+          <t>PYRuHqvPVW</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D49" t="n">
-        <v>69</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>YYyLZKRcMy</t>
+          <t>mKtHIJRVru</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>95</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>jhqAPJIYnF</t>
+          <t>nGHzddWXLE</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>JcwnfAtimW</t>
+          <t>NfxypgFwKo</t>
         </is>
       </c>
       <c r="B52" t="n">
+        <v>4</v>
+      </c>
+      <c r="C52" t="n">
         <v>1</v>
       </c>
-      <c r="C52" t="n">
-        <v>4</v>
-      </c>
       <c r="D52" t="n">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>deMXGqeuoD</t>
+          <t>sMjHOyISwU</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>7</v>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BnLGCGyMlC</t>
+          <t>uGXHmHjHBn</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>jTUvSckNmS</t>
+          <t>jHHSQjjJTK</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>77</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MTnBouchAu</t>
+          <t>adbCRFXQmv</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D56" t="n">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>jdDVFBCEex</t>
+          <t>DzJHNifsvL</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>NNvOYfIsXL</t>
+          <t>WCZPmRNeBK</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>olBhdSdunG</t>
+          <t>YOCYmYVdcj</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>gRmvbpoJVr</t>
+          <t>uDWdbunxGk</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>odyaegnXqT</t>
+          <t>uRTQeqZvAo</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>pwDJBulfit</t>
+          <t>DxPHRblBKs</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C62" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>UKaKjKeyiG</t>
+          <t>CrgMGCriQR</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>xFTRtwNufM</t>
+          <t>mzvnIditQv</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ABZkCPKCQv</t>
+          <t>PrmWRjkTJY</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>lnBpgLISCZ</t>
+          <t>cIDEDXmrLO</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>85</v>
@@ -1499,561 +1499,561 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>DIGdVyGZfA</t>
+          <t>WALuiIgSZA</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>aUflsURlIq</t>
+          <t>gseXVcpmww</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C68" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>35</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>YloZLggpkW</t>
+          <t>xrqypHDQMN</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>IsptCKIGuI</t>
+          <t>qpAavLMTEK</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>6</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>LJjWpCkcQH</t>
+          <t>jhctlkErEG</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>aBXGhQnRfj</t>
+          <t>nOrVKYhfXp</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>quGkrulmas</t>
+          <t>sBeiiGsTls</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>5</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>93</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>TclojgQtQe</t>
+          <t>tAOcIKCmjN</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ueLMqGDxrZ</t>
+          <t>NzJfKmPHzG</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>4</v>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D75" t="n">
-        <v>99</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>QYAyyDZAyG</t>
+          <t>hKFTMMmFHK</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>61</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>tVRgNEspwt</t>
+          <t>ySHxTlcSiX</t>
         </is>
       </c>
       <c r="B77" t="n">
+        <v>9</v>
+      </c>
+      <c r="C77" t="n">
+        <v>4</v>
+      </c>
+      <c r="D77" t="n">
         <v>0</v>
-      </c>
-      <c r="C77" t="n">
-        <v>5</v>
-      </c>
-      <c r="D77" t="n">
-        <v>97</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>PlKRNIEknR</t>
+          <t>GdoadehETf</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ujlSOJOcfW</t>
+          <t>JriJlbXtSt</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C79" t="n">
+        <v>7</v>
+      </c>
+      <c r="D79" t="n">
         <v>6</v>
-      </c>
-      <c r="D79" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>cFjFySfaIP</t>
+          <t>vNZVAjYUNf</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ynZvCOGabC</t>
+          <t>iCjzaGoVis</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C81" t="n">
         <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MOqRugRLNu</t>
+          <t>WWHUpcpGZt</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>94</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>HbxdAvDyBW</t>
+          <t>VCoVrKTkxT</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C83" t="n">
         <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>13</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>WWquVMUAhP</t>
+          <t>JzzeISPXdk</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>71</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>McvnMZXijP</t>
+          <t>ujOxFszhFP</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>RwHVwOsMIR</t>
+          <t>aDVEpWFbub</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>UVgiEHtQbQ</t>
+          <t>TtIJNFaYXN</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>cpGDyNfVBi</t>
+          <t>XhyufukZKT</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C88" t="n">
         <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>90</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>uQYpzIJOTt</t>
+          <t>BcZSZxoCEZ</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C89" t="n">
         <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>aokXzNOezl</t>
+          <t>tsTpDIudsq</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>XrelbkQBod</t>
+          <t>HRnqZOeaUs</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>64</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>AgeLBGBApp</t>
+          <t>BBYLKgtPPz</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C92" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>tFyHPBDcpg</t>
+          <t>AIiPtdZsiX</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C93" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>wKwMuqkOUV</t>
+          <t>PzLqCyYDGv</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>YRVOHLhmkD</t>
+          <t>CqhzRuGfOB</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>2</v>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>63</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>xZActdrQCk</t>
+          <t>NyeAMCiNVz</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>loEJwwHQgO</t>
+          <t>MaaVICrVaj</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>oLKdiYfKtG</t>
+          <t>RfrntrWNik</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>QFzffcfCoh</t>
+          <t>NZpESwtWLc</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>OmaQtxAGuW</t>
+          <t>lqcAaVfmxA</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>iqToCWCUpC</t>
+          <t>eEwCWFKfCM</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2099,11 +2099,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Abraham</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2112,120 +2112,120 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2910</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Franklin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nixon</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3339</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Theodore</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Adams</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2935</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Abraham</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nixon</t>
+          <t>Adams</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2600</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Franklin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Adams</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2875</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>Roosevelt</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3563</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Roosevelt</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2394</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2234,38 +2234,38 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Adams</t>
+          <t>Roosevelt</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3113</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Abraham</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Adams</t>
+          <t>Roosevelt</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3087</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2274,12 +2274,12 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4541</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2288,106 +2288,106 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Roosevelt</t>
+          <t>Adams</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2637</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Adams</t>
+          <t>Roosevelt</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3480</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Abraham</t>
+          <t>George</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>Nixon</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3775</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Theodore</t>
+          <t>Abraham</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Roosevelt</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3839</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Abraham</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Roosevelt</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4105</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Theodore</t>
+          <t>Abraham</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Adams</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3300</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2396,70 +2396,70 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Adams</t>
+          <t>Nixon</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3005</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Franklin</t>
+          <t>Theodore</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>Adams</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3830</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Abraham</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Roosevelt</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2773</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Theodore</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Nixon</t>
+          <t>Roosevelt</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3636</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2468,124 +2468,124 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Adams</t>
+          <t>Roosevelt</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2400</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Nixon</t>
+          <t>Adams</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3294</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Theodore</t>
+          <t>George</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>Roosevelt</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3114</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Franklin</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Adams</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2763</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Adams</t>
+          <t>Nixon</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2956</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Franklin</t>
+          <t>George</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Adams</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2682</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Abraham</t>
+          <t>George</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Roosevelt</t>
+          <t>Adams</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3478</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2594,16 +2594,16 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Adams</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4783</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2612,70 +2612,70 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Adams</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2927</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Nixon</t>
+          <t>Adams</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4133</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Adams</t>
+          <t>Roosevelt</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2729</v>
+        <v>4155</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Franklin</t>
+          <t>George</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Roosevelt</t>
+          <t>Adams</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3279</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2688,66 +2688,66 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2015</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Theodore</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3289</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Theodore</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>4530</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Franklin</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Roosevelt</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>4238</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2760,88 +2760,88 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3169</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Franklin</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Roosevelt</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2391</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Abraham</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Roosevelt</t>
+          <t>Nixon</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3586</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Franklin</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Nixon</t>
+          <t>Roosevelt</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3689</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Franklin</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>Nixon</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4811</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Theodore</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2850,30 +2850,30 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3346</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Theodore</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Adams</t>
+          <t>Nixon</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2435</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2882,106 +2882,106 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Adams</t>
+          <t>Roosevelt</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3475</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Abraham</t>
+          <t>Franklin</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Adams</t>
+          <t>Nixon</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4246</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Theodore</t>
+          <t>Franklin</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Roosevelt</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3202</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Franklin</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Roosevelt</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>4622</v>
+        <v>4838</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Theodore</t>
+          <t>Abraham</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Adams</t>
+          <t>Nixon</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3917</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Theodore</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Roosevelt</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3767</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2990,11 +2990,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Adams</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2404</v>
+        <v>3420</v>
       </c>
     </row>
   </sheetData>
